--- a/ecp1.xlsx
+++ b/ecp1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Desktop\ESTG\ESII\Tabela de Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Desktop\ESTG\ESII\Trabalho 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506689E6-F82C-4DA1-8B49-D70FB30991D0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418723CE-7A4B-41E5-AEBC-4F275202E3E3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" tabRatio="731" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -835,9 +835,6 @@
  da divisão inteira por 10 de nRentals diferente de 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Se o utilizador não estiver aluguer ativo </t>
-  </si>
-  <si>
     <t>Se o ID do utilizador não se encontrar registado</t>
   </si>
   <si>
@@ -860,6 +857,9 @@
   </si>
   <si>
     <t>&gt;0,não existente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se o utilizador não tiver aluguer ativo </t>
   </si>
 </sst>
 </file>
@@ -1147,15 +1147,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1163,6 +1154,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1993,22 +1993,22 @@
     <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="H16" s="32"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="30"/>
       <c r="J16" s="30" t="s">
         <v>19</v>
@@ -2025,12 +2025,12 @@
     <row r="17" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="31"/>
-      <c r="H17" s="34"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
       <c r="K17" s="11"/>
@@ -2207,13 +2207,13 @@
       <c r="D23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="36" t="s">
         <v>192</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="36" t="s">
         <v>209</v>
       </c>
       <c r="H23" s="30"/>
@@ -5616,16 +5616,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="I16:I17"/>
     <mergeCell ref="J23:J24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -5634,6 +5624,16 @@
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="I23:I24"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -5644,8 +5644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C47533B-E97F-4665-914E-2640384A2D17}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5896,7 +5896,7 @@
         <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D10" t="s">
         <v>213</v>
@@ -5916,7 +5916,7 @@
         <v>210</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D11" t="s">
         <v>212</v>
@@ -6285,7 +6285,7 @@
         <v>248</v>
       </c>
       <c r="C32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D32" t="s">
         <v>213</v>
@@ -6308,7 +6308,7 @@
         <v>248</v>
       </c>
       <c r="C33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D33" t="s">
         <v>212</v>
@@ -6374,7 +6374,7 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C38" t="s">
         <v>215</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C39" t="s">
         <v>215</v>
@@ -6409,7 +6409,7 @@
         <v>230</v>
       </c>
       <c r="G39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I39" t="s">
         <v>217</v>
@@ -6417,10 +6417,10 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D42" t="s">
         <v>213</v>
@@ -6429,10 +6429,10 @@
         <v>232</v>
       </c>
       <c r="F42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I42" t="s">
         <v>217</v>
@@ -6440,10 +6440,10 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D43" t="s">
         <v>212</v>
@@ -6452,10 +6452,10 @@
         <v>232</v>
       </c>
       <c r="F43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I43" t="s">
         <v>217</v>
@@ -6463,10 +6463,10 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D44" t="s">
         <v>213</v>
